--- a/info.xlsx
+++ b/info.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5882B47-007B-43E0-B76F-FEE45A7EFBA0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,31 +358,31 @@
     <t>30 - 13:00</t>
   </si>
   <si>
-    <t>30 - 17:15</t>
-  </si>
-  <si>
     <t>Dominika Makla</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/118435560279846088035/reviews/@37.0625,-95.677068,4z/data=!4m3!8m2!3m1!1e1</t>
   </si>
   <si>
-    <t>30 - 18:00</t>
-  </si>
-  <si>
     <t>Asia Wyjec</t>
   </si>
   <si>
     <t>https://www.google.com/maps/contrib/110864265849761371200/reviews?hl=en-NL&amp;sa=X&amp;ved=2ahUKEwiO2df1xpXdAhVEXxoKHQhqCqMQvvQBegQIARAC</t>
   </si>
   <si>
-    <t>39 - 22:00</t>
+    <t>31 - 8:45</t>
+  </si>
+  <si>
+    <t>31 - 10:00</t>
+  </si>
+  <si>
+    <t>31 - 10:40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,11 +767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +815,9 @@
       <c r="L2" s="6">
         <v>43342</v>
       </c>
-      <c r="M2" s="6"/>
+      <c r="M2" s="6">
+        <v>43343</v>
+      </c>
     </row>
     <row r="3" spans="6:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
@@ -836,10 +839,10 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>6</v>
@@ -852,6 +855,9 @@
       </c>
       <c r="L5">
         <v>88</v>
+      </c>
+      <c r="M5">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="6:21" x14ac:dyDescent="0.25">
@@ -859,10 +865,10 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>4</v>
@@ -875,6 +881,9 @@
       </c>
       <c r="L6">
         <v>22</v>
+      </c>
+      <c r="M6">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="6:21" x14ac:dyDescent="0.25">
@@ -905,10 +914,10 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -921,6 +930,9 @@
       </c>
       <c r="L8">
         <v>86</v>
+      </c>
+      <c r="M8">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="6:21" ht="17.25" x14ac:dyDescent="0.25">
@@ -1233,10 +1245,10 @@
         <v>1</v>
       </c>
       <c r="S20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T20" t="s">
         <v>113</v>
-      </c>
-      <c r="T20" t="s">
-        <v>114</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -1284,10 +1296,10 @@
       </c>
       <c r="J22"/>
       <c r="K22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1499,7 +1511,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
